--- a/data/trans_camb/CoPsoQ_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/CoPsoQ_R2-Dificultad-trans_camb.xlsx
@@ -612,13 +612,13 @@
         <v>-1.075960993033709</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-6.47579896369087</v>
+        <v>-6.475798963690882</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-2.227761101757908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.381311993482227</v>
+        <v>-2.381311993482238</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>-1.669320279473319</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.369800301872139</v>
+        <v>-9.679295750136429</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-30.13414332706514</v>
+        <v>-28.93760773036516</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.59462638495195</v>
+        <v>-11.82207343066353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.58517217549324</v>
+        <v>-18.961245150592</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.225454196924261</v>
+        <v>-8.057736784341866</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.09743850323843</v>
+        <v>-17.36266642921469</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.552519536564155</v>
+        <v>7.51735598915146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.1686047810077</v>
+        <v>16.6129998033933</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.499670387277325</v>
+        <v>6.650257965389038</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.18486243707819</v>
+        <v>14.31028667231539</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.600710821941022</v>
+        <v>4.529695881493943</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.408190672031683</v>
+        <v>8.597368991139859</v>
       </c>
     </row>
     <row r="7">
@@ -690,13 +690,13 @@
         <v>-0.01822940134211843</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1097158159861815</v>
+        <v>-0.1097158159861816</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.03826206835690552</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.04089932363117332</v>
+        <v>-0.04089932363117351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.0284532055127877</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.148413497035236</v>
+        <v>-0.1526175615589048</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4889738342838754</v>
+        <v>-0.4720805264512479</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1890882614953392</v>
+        <v>-0.1877669060695389</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.34496226306302</v>
+        <v>-0.3138002995990076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1288285798439575</v>
+        <v>-0.1304504964853431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3062486764673191</v>
+        <v>-0.2950739476358226</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1384464669194809</v>
+        <v>0.1372204241169108</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2476044011404319</v>
+        <v>0.288691880399447</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1203227733411314</v>
+        <v>0.1255755568325103</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2418428290727616</v>
+        <v>0.273410270039334</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08441852631575655</v>
+        <v>0.08416010437672425</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1639975837252193</v>
+        <v>0.1480872508149371</v>
       </c>
     </row>
     <row r="10">
@@ -772,19 +772,19 @@
         <v>1.774718549945919</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-7.798176074461239</v>
+        <v>-7.798176074461249</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.8810088659849558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.72358066431735</v>
+        <v>3.723580664317339</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6681607151535984</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-2.789244883964836</v>
+        <v>-2.789244883964848</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.446839514626223</v>
+        <v>-5.447322533562035</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-19.20945643135168</v>
+        <v>-20.42927915913266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-8.767516701437515</v>
+        <v>-9.875282933125238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.160180348253014</v>
+        <v>-8.011121933036854</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.153296202032454</v>
+        <v>-4.940226690788722</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-11.27479005685121</v>
+        <v>-10.8940972984033</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.656036441387807</v>
+        <v>8.588818262999888</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.776786298439957</v>
+        <v>3.797380702232097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.942470678060222</v>
+        <v>8.319660064584955</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.5542859132709</v>
+        <v>14.82873840871261</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.771588997117522</v>
+        <v>6.091767956309153</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.342304222930014</v>
+        <v>5.79558731727432</v>
       </c>
     </row>
     <row r="13">
@@ -850,19 +850,19 @@
         <v>0.03039814138758599</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1335705083400331</v>
+        <v>-0.1335705083400333</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.01598553374385605</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.06756279835035318</v>
+        <v>0.06756279835035299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01170845860397702</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.04887710025386559</v>
+        <v>-0.04887710025386579</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.08742084325196527</v>
+        <v>-0.0889484489552532</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.320661451656045</v>
+        <v>-0.3415574784265782</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1486086034877344</v>
+        <v>-0.1711941818758183</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1021753889752527</v>
+        <v>-0.1378210389126019</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.08584098873815454</v>
+        <v>-0.08161947797314276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1888409094222242</v>
+        <v>-0.1831446655659716</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1611296078572663</v>
+        <v>0.1569315088559073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08285445173902339</v>
+        <v>0.06534504993140605</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.156353834626617</v>
+        <v>0.1647632280413424</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.286334327042756</v>
+        <v>0.2856807950448464</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1258848071606692</v>
+        <v>0.1111058889965395</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1021895560771549</v>
+        <v>0.1084666369194214</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>9.475878417003846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.172748679528937</v>
+        <v>-4.172748679528943</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.2999392165717873</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-13.33712938810074</v>
+        <v>-12.87809895434104</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-29.16272320948036</v>
+        <v>-29.39482430350892</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.040222401396003</v>
+        <v>1.02568459759602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-14.26961982770977</v>
+        <v>-14.60821756951723</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.976964947134261</v>
+        <v>-5.246743314346882</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-19.89214188234417</v>
+        <v>-20.43470121116574</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6690363635805705</v>
+        <v>0.1474961825268079</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.948111084363215</v>
+        <v>-6.671687463694647</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.22315130604108</v>
+        <v>18.16316285113392</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.745809403347847</v>
+        <v>5.77623583820538</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.839793429238359</v>
+        <v>5.094575151577662</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.226255511795846</v>
+        <v>-4.617211582136112</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>0.1801714234124595</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.07933935367766172</v>
+        <v>-0.07933935367766182</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.005244572017231128</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2092263447167728</v>
+        <v>-0.2079780048873757</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4707474614165577</v>
+        <v>-0.4825415079123268</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01049138765654574</v>
+        <v>0.01715697525194514</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2606251579398416</v>
+        <v>-0.2624960820329615</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09875581265702726</v>
+        <v>-0.08716482351219293</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3361714125419678</v>
+        <v>-0.3421706678576178</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.01149329885050635</v>
+        <v>0.002661264744099307</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1037290692542549</v>
+        <v>-0.1168265634974978</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3610638379026859</v>
+        <v>0.3867822197297028</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1372559156748036</v>
+        <v>0.1210914149545005</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0892560100329655</v>
+        <v>0.0925452276653526</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.05975990819765359</v>
+        <v>-0.08181897046491782</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1098,7 @@
         <v>-5.729539829521347</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-18.7589233979394</v>
+        <v>-18.75892339793942</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-7.674433972114125</v>
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-17.58460253570695</v>
+        <v>-17.70083192512836</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-34.39581832520665</v>
+        <v>-34.18115413164046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.49915532710004</v>
+        <v>-16.45425864871405</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-28.89382752060614</v>
+        <v>-28.95046910399829</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-14.43777250883792</v>
+        <v>-14.44001079733352</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-29.82367909688093</v>
+        <v>-29.97293400285744</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7922843063672633</v>
+        <v>0.9041313726159902</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-15.11959144332176</v>
+        <v>-14.31731613777648</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.577341085118372</v>
+        <v>5.560058161382289</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-7.306303691595062</v>
+        <v>-7.197719126615825</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.3649369175417965</v>
+        <v>-0.4342275433969268</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-15.17931734850421</v>
+        <v>-15.46355200903613</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>-0.1131300452403583</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.3703958635097911</v>
+        <v>-0.3703958635097914</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1436560717842988</v>
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2989707783009301</v>
+        <v>-0.2943513260210134</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5851735576539311</v>
+        <v>-0.5874663960614627</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2807523005631805</v>
+        <v>-0.2972401040449837</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.524827666954831</v>
+        <v>-0.5237413752532214</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2542165315636999</v>
+        <v>-0.2561585888082685</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5263781028969307</v>
+        <v>-0.5305621170397659</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01308238655791317</v>
+        <v>0.01697143470008528</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.2905597706820064</v>
+        <v>-0.2763344326563524</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1230767751325379</v>
+        <v>0.1213800047123797</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.1615238449662055</v>
+        <v>-0.159426433905134</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.01044257883285914</v>
+        <v>-0.007814640626313943</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.3003267289341327</v>
+        <v>-0.3035350250161458</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-1.704220277414126</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-14.04856277530577</v>
+        <v>-14.04856277530576</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.28954444312791</v>
+        <v>-6.920292159820464</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-24.38928979924432</v>
+        <v>-24.65653785887146</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.752185907139527</v>
+        <v>-3.125568442996573</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-13.78264429259706</v>
+        <v>-13.7346839070455</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.292660125065971</v>
+        <v>-4.619065010637867</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-18.05460867362938</v>
+        <v>-18.07968669793615</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7251173361564428</v>
+        <v>0.7895332543970051</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-12.38808172652002</v>
+        <v>-12.5583855493278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.397716025112198</v>
+        <v>5.801013741667367</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.579961583743041</v>
+        <v>-2.919548586970704</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.560679431345256</v>
+        <v>1.301333440716858</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-9.467584366081622</v>
+        <v>-9.966614585456114</v>
       </c>
     </row>
     <row r="31">
@@ -1342,7 +1342,7 @@
         <v>-0.0300505840261082</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2477188669330655</v>
+        <v>-0.2477188669330654</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1210841104671075</v>
+        <v>-0.1171504225789067</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4083209438995926</v>
+        <v>-0.4167152345353689</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.06646741957216601</v>
+        <v>-0.05529879918613767</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2481662749724468</v>
+        <v>-0.2445955862526302</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.07479380971638608</v>
+        <v>-0.07939487206768657</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.3143840337394093</v>
+        <v>-0.3153857932343069</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.01217077710682722</v>
+        <v>0.0123324507249067</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.2170483532315718</v>
+        <v>-0.2201281723754013</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1046603898936973</v>
+        <v>0.1130093963754267</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.05071217678231126</v>
+        <v>-0.05632893039269914</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.02845822423312484</v>
+        <v>0.0236814020374673</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1713653878045724</v>
+        <v>-0.1812621130538713</v>
       </c>
     </row>
     <row r="34">
